--- a/Katalog WS Bridging Antrean RS - BPJS Khanza.xlsx
+++ b/Katalog WS Bridging Antrean RS - BPJS Khanza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basoro/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basoro/Desktop/Basoro.ID/Khanza-JKN-Mobile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C01193B9-02AC-B049-9AEB-3A88A323EC71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B9EE066-8F0E-AA4E-A9E0-449741125E7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="2800" windowWidth="23100" windowHeight="13180" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="2800" windowWidth="23100" windowHeight="13180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Token" sheetId="1" r:id="rId1"/>
@@ -101,32 +101,6 @@
   </si>
   <si>
     <t>TOKEN</t>
-  </si>
-  <si>
-    <t>{
-    "nomorkartu": "0000000000123",
-    "nik": "3506141308950002",
-    "nomorrm": "304243",
-    "notelp": "081123456778",
-    "tanggalperiksa": "2019-12-11",
-    "kodepoli": "001",
-    "nomorreferensi": "0001R0040116A000001",
-    "jenisreferensi": 1,
-    "jenisrequest": 2,
-    "polieksekutif": 0
-}</t>
-  </si>
-  <si>
-    <t>- NOMOR KARTU
-- NIK
-- NOMOR RM
-- NO TELP
-- TANGGAL PERIKSA (YYYY-DD-MM)
-- KODE POLI (SESUAI REFERENSI POLI BPJS)
-- NOMOR REFERENSI (NOMOR RUJUKAN / NOMOR KONTROL)
-- JENIS RFERENSI (NOMOR RUJUKAN [1] / NOMOR KONTROL [2])
-- JENIS REQUEST (PENDAFTARAN [1] / POLI [2])
-- POLI EKSEKUTIF (1=Poli Eksekutif, 0=Poli Reguler)</t>
   </si>
   <si>
     <t>{
@@ -1268,6 +1242,30 @@
   <si>
     <t>https://api.simkeskhanza.com/jadwal_operasi
 https://api.simkeskhanza.com/index.php?act=jadwal_operasi</t>
+  </si>
+  <si>
+    <t>{
+    "nomorkartu": "0000000000123",
+    "nik": "3506141308950002",
+    "notelp": "081123456778",
+    "tanggalperiksa": "2019-12-11",
+    "kodepoli": "001",
+    "nomorreferensi": "0001R0040116A000001",
+    "jenisreferensi": 1,
+    "jenisrequest": 2,
+    "polieksekutif": 0
+}</t>
+  </si>
+  <si>
+    <t>- NOMOR KARTU
+- NIK
+- NO TELP
+- TANGGAL PERIKSA (YYYY-DD-MM)
+- KODE POLI (SESUAI REFERENSI POLI BPJS)
+- NOMOR REFERENSI (NOMOR RUJUKAN / NOMOR KONTROL)
+- JENIS RFERENSI (NOMOR RUJUKAN [1] / NOMOR KONTROL [2])
+- JENIS REQUEST (PENDAFTARAN [1] / POLI [2])
+- POLI EKSEKUTIF (1=Poli Eksekutif, 0=Poli Reguler)</t>
   </si>
 </sst>
 </file>
@@ -1437,9 +1435,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1458,6 +1453,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,11 +1872,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>367</v>
+      <c r="B3" s="19" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1950,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1978,12 +1976,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>368</v>
+      <c r="B3" s="21" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,10 +2011,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>370</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="218.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,10 +2022,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,15 +2071,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>369</v>
+      <c r="B3" s="19" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,10 +2109,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,10 +2120,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,15 +2169,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>370</v>
+      <c r="B3" s="19" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2209,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,10 +2215,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,15 +2264,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>371</v>
+      <c r="B3" s="19" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,21 +2302,21 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
@@ -2353,1340 +2351,1340 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
+    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
+    <row r="32" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
+    <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="18" t="s">
+    <row r="34" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="18" t="s">
+    <row r="35" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+    <row r="36" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
+    <row r="37" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
+    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="18" t="s">
+    <row r="39" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
+    <row r="40" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
+    <row r="41" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="s">
+    <row r="42" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="18" t="s">
+    <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
+    <row r="44" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
+    <row r="45" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
+    <row r="46" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
+    <row r="47" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
+    <row r="48" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="18" t="s">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="18" t="s">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="18" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="18" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="18" t="s">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="18" t="s">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C63" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="s">
+    <row r="65" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="18" t="s">
+    <row r="66" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="18" t="s">
+    <row r="67" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="18" t="s">
+    <row r="68" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="18" t="s">
+    <row r="69" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
+    <row r="70" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="18" t="s">
+    <row r="71" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="18" t="s">
+    <row r="72" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="18" t="s">
+    <row r="73" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="18" t="s">
+    <row r="74" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="18" t="s">
+    <row r="75" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C75" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="18" t="s">
+    <row r="76" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C76" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="18" t="s">
+    <row r="77" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="18" t="s">
+    <row r="78" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="18" t="s">
+    <row r="79" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="18" t="s">
+    <row r="80" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="18" t="s">
+    <row r="81" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B81" s="18" t="s">
+    <row r="82" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="18" t="s">
+    <row r="83" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C83" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B83" s="18" t="s">
+    <row r="84" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B84" s="18" t="s">
+    <row r="85" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B85" s="18" t="s">
+    <row r="86" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B86" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C86" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
+    <row r="87" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B87" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C87" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B87" s="18" t="s">
+    <row r="88" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C88" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="18" t="s">
+    <row r="89" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B89" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C89" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="18" t="s">
+    <row r="90" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B90" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C90" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="18" t="s">
+    <row r="91" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C91" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B91" s="18" t="s">
+    <row r="92" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C92" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="18" t="s">
+    <row r="93" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C93" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="18" t="s">
+    <row r="94" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B94" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C94" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B94" s="18" t="s">
+    <row r="95" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B95" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C95" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
+    <row r="96" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B96" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C96" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B97" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C97" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="18" t="s">
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B98" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C98" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="18" t="s">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B99" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C99" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B99" s="18" t="s">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B100" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C100" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B100" s="18" t="s">
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B101" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C101" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B101" s="18" t="s">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B102" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C102" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B102" s="18" t="s">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B103" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C103" s="18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B103" s="18" t="s">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B104" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C104" s="18" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B104" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>252</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B108" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C108" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B108" s="18" t="s">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B109" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C109" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B109" s="18" t="s">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B110" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C110" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B110" s="18" t="s">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B111" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C111" s="18" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B111" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" s="19" t="s">
+      <c r="C113" s="18" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B113" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>269</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B114" s="18" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B115" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C115" s="18" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B115" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B116" s="18" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B117" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C117" s="18" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B117" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>281</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B119" s="18" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B120" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C120" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="18" t="s">
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B121" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C121" s="18" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B121" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>276</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C122" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B123" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="18" t="s">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C124" s="18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B124" s="18" t="s">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B125" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C125" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="18" t="s">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C126" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="18" t="s">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C127" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B127" s="18" t="s">
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B128" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C128" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="18" t="s">
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B129" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C129" s="18" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B129" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B131" s="18" t="s">
+    </row>
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B132" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C132" s="18" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B132" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B134" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" s="19" t="s">
+      <c r="C134" s="18" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B134" s="18" t="s">
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B135" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C135" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B135" s="18" t="s">
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B136" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C136" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B136" s="18" t="s">
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B137" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C137" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B137" s="18" t="s">
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B138" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C138" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B138" s="18" t="s">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B139" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C139" s="18" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>325</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="18" t="s">
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B141" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C141" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B141" s="18" t="s">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B142" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C142" s="18" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B142" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>332</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B144" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B143" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="19" t="s">
+      <c r="C144" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B144" s="18" t="s">
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B145" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C145" s="18" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B145" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>338</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B147" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="B146" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C146" s="19" t="s">
+      <c r="C147" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B147" s="18" t="s">
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B148" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C148" s="18" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B148" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B150" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B149" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C149" s="19" t="s">
+      <c r="C150" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B150" s="18" t="s">
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B151" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C151" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B151" s="18" t="s">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B152" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C152" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B152" s="18" t="s">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B153" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C153" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B153" s="18" t="s">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B154" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C154" s="18" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B154" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="B155" s="18" t="s">
+    </row>
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C156" s="18" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B156" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>283</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>363</v>
+        <v>281</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>364</v>
+        <v>159</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>365</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
